--- a/data/case1/5/P2_2.xlsx
+++ b/data/case1/5/P2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.29401807251281298</v>
+        <v>0.47694268276958951</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991133046251</v>
+        <v>-0.087913362913113247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.04594624455520524</v>
+        <v>-0.0089999993895677477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999790617721</v>
+        <v>-0.011999999845025755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991196946212</v>
+        <v>-0.0059999993962627229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999991060202262</v>
+        <v>-0.0059999993781545413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998951282905</v>
+        <v>-0.019999999275297498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998944601138</v>
+        <v>-0.019999999273843549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990906760559</v>
+        <v>-0.0059999993759793924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999990858088381</v>
+        <v>-0.0059999993770532001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999991019878394</v>
+        <v>0.06603235845526001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999990848975671</v>
+        <v>-0.0059999993754744629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990827144245</v>
+        <v>-0.005999999365508657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999017469065</v>
+        <v>-0.011999999318904386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990835519768</v>
+        <v>-0.0059999993605117652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.040862527139597038</v>
+        <v>-0.0059999993585497791</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0641015860632006</v>
+        <v>-0.0059999993558799147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999990681048914</v>
+        <v>-0.0089999993334215489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999991238696175</v>
+        <v>-0.093858351634332315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999991160958359</v>
+        <v>-0.0089999994002454287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999991150282455</v>
+        <v>-0.0089999993994398508</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999991143319136</v>
+        <v>-0.0089999993989149374</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999990917082329</v>
+        <v>-0.0089999993840681469</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998718111442</v>
+        <v>-0.041999999134939792</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998711074404</v>
+        <v>-0.041999999130128529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999991060095681</v>
+        <v>-0.0059999993761934434</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.057123503477230386</v>
+        <v>-0.0059999993729484835</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990933228275</v>
+        <v>-0.0059999993588428779</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999019723262</v>
+        <v>-0.011999999305819742</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998929241425</v>
+        <v>-0.01999999924290341</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.008306662676794474</v>
+        <v>-0.01499999927272988</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998913734608</v>
+        <v>-0.02099999922795881</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990765948752</v>
+        <v>-0.0059999993369705962</v>
       </c>
     </row>
   </sheetData>
